--- a/target/classes/com/yadara/testdata/YADARA Payment Information.xlsx
+++ b/target/classes/com/yadara/testdata/YADARA Payment Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Eclipse Automation Project\Yadara\Yadara\src\main\java\com\yadara\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D88D27-536F-4491-89B3-8FADA5709DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D61ABEA-6E09-49EF-B35B-AFBE42418DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
